--- a/REGULAR/RE-ENCODE/HAPITA MELANIE.xlsx
+++ b/REGULAR/RE-ENCODE/HAPITA MELANIE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5E8C02-6D33-4CFE-A9CA-B8CE712366B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A676E7-5A80-4E68-BD46-93018AF05F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
   <si>
     <t>PERIOD</t>
   </si>
@@ -292,6 +292,15 @@
   </si>
   <si>
     <t>2/1-5/2023</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>5/16,17,18,19/2023</t>
+  </si>
+  <si>
+    <t>5/8-12/2023</t>
   </si>
 </sst>
 </file>
@@ -983,7 +992,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1312,12 +1321,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A78" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A87" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K90" sqref="K90"/>
+      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1484,7 +1493,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.198</v>
+        <v>19.198</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3201,9 +3210,13 @@
       <c r="A90" s="40">
         <v>45017</v>
       </c>
-      <c r="B90" s="20"/>
+      <c r="B90" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="39"/>
+      <c r="D90" s="39">
+        <v>4</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13" t="str">
@@ -3213,13 +3226,15 @@
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B91" s="20"/>
+      <c r="A91" s="40"/>
+      <c r="B91" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
@@ -3231,15 +3246,21 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="49">
+        <v>45066</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B92" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="39"/>
+      <c r="D92" s="39">
+        <v>5</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
       <c r="G92" s="13" t="str">
@@ -3249,11 +3270,13 @@
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3271,7 +3294,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3289,7 +3312,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3307,7 +3330,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3325,7 +3348,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3343,7 +3366,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3361,7 +3384,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3379,7 +3402,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3397,7 +3420,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3415,7 +3438,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3433,7 +3456,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3450,7 +3473,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45413</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3866,20 +3891,36 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="41"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="43"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3925,7 +3966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
